--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1453460.117203622</v>
+        <v>-1456130.112758583</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377147</v>
+        <v>9823063.766377145</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>369.0685238739792</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>351.6075739815062</v>
       </c>
       <c r="D11" t="n">
         <v>341.0177238311816</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867449</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>35.74131576077585</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>237.3298541694006</v>
@@ -1433,10 +1433,10 @@
         <v>335.5756509279116</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>152.2288066444957</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,7 +1531,7 @@
         <v>153.5815033091265</v>
       </c>
       <c r="D13" t="n">
-        <v>134.950155228711</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>131.0896971248194</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>48.50368200819322</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054599</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>14.3903994408767</v>
+        <v>176.1037075419405</v>
       </c>
       <c r="T13" t="n">
         <v>205.8836314866678</v>
@@ -1607,25 +1607,25 @@
         <v>369.0685238739792</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815062</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>341.0177238311816</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827604</v>
+        <v>8.468232003017533</v>
       </c>
       <c r="F14" t="n">
         <v>393.21072795221</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639521</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.9424465978191</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>27.91161198342461</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.52244399867449</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>190.2526523501188</v>
@@ -1664,13 +1664,13 @@
         <v>237.3298541694006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>314.0869406806335</v>
       </c>
       <c r="W14" t="n">
-        <v>110.3991869548817</v>
+        <v>335.5756509279116</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>356.0657828889676</v>
       </c>
       <c r="Y14" t="n">
         <v>372.5726208665522</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>132.7686448570678</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.3604904695269</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.68710262033676</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054599</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>205.8836314866678</v>
@@ -1822,7 +1822,7 @@
         <v>272.5465204161115</v>
       </c>
       <c r="V16" t="n">
-        <v>209.951417327621</v>
+        <v>238.4723255343266</v>
       </c>
       <c r="W16" t="n">
         <v>272.8576805470896</v>
@@ -1831,7 +1831,7 @@
         <v>212.0443375995358</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625934</v>
+        <v>59.95273183144267</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553867</v>
+        <v>322.0933872553866</v>
       </c>
       <c r="C17" t="n">
         <v>304.6324373629136</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0425872125891</v>
+        <v>294.042587212589</v>
       </c>
       <c r="E17" t="n">
-        <v>282.4786072299163</v>
+        <v>321.2899156641678</v>
       </c>
       <c r="F17" t="n">
-        <v>346.2355913336175</v>
+        <v>307.4242828993665</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453596</v>
+        <v>350.2812712453595</v>
       </c>
       <c r="H17" t="n">
         <v>233.9673099792265</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008193</v>
+        <v>48.54730738008189</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315263</v>
+        <v>143.2775157315262</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508081</v>
+        <v>190.354717550808</v>
       </c>
       <c r="V17" t="n">
         <v>267.111804062041</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247645</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,22 +2005,22 @@
         <v>106.6063666905339</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011844</v>
+        <v>87.97501861011841</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847525</v>
+        <v>85.79350823847523</v>
       </c>
       <c r="F19" t="n">
-        <v>84.78059361483733</v>
+        <v>84.7805936148373</v>
       </c>
       <c r="G19" t="n">
         <v>105.3853538509343</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622687</v>
+        <v>84.11456050622684</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174419</v>
+        <v>35.71196600174415</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.29169826195343</v>
+        <v>28.29169826195339</v>
       </c>
       <c r="S19" t="n">
         <v>129.128570923348</v>
@@ -2068,7 +2068,7 @@
         <v>165.0692009809432</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.9441989440009</v>
+        <v>157.9441989440008</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>321.2899156641678</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336175</v>
+        <v>307.4242828993679</v>
       </c>
       <c r="G20" t="n">
         <v>350.2812712453595</v>
@@ -2147,7 +2147,7 @@
         <v>309.0906462703751</v>
       </c>
       <c r="Y20" t="n">
-        <v>286.7861758137087</v>
+        <v>325.5974842479596</v>
       </c>
     </row>
     <row r="21">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,19 +3977,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.191266460389</v>
+        <v>2220.350432098274</v>
       </c>
       <c r="C11" t="n">
         <v>1865.191266460389</v>
@@ -5027,64 +5027,64 @@
         <v>1148.744017860447</v>
       </c>
       <c r="F11" t="n">
-        <v>751.5614643733661</v>
+        <v>751.5614643733663</v>
       </c>
       <c r="G11" t="n">
         <v>350.2923655208896</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3229.118504438792</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3193.016165286493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2953.289039862856</v>
+        <v>3085.878696185533</v>
       </c>
       <c r="V11" t="n">
-        <v>2953.289039862856</v>
+        <v>3085.878696185533</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.323735895269</v>
+        <v>2746.913392217945</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.323735895269</v>
+        <v>2593.146920859869</v>
       </c>
       <c r="Y11" t="n">
-        <v>2237.987755221984</v>
+        <v>2593.146920859869</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5142,28 +5142,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.3581531651265</v>
+        <v>690.0384832454117</v>
       </c>
       <c r="C13" t="n">
-        <v>622.2253215397462</v>
+        <v>534.9056516200314</v>
       </c>
       <c r="D13" t="n">
-        <v>485.9120334299371</v>
+        <v>534.9056516200314</v>
       </c>
       <c r="E13" t="n">
-        <v>485.9120334299371</v>
+        <v>534.9056516200314</v>
       </c>
       <c r="F13" t="n">
-        <v>352.8254372345534</v>
+        <v>401.8190554246477</v>
       </c>
       <c r="G13" t="n">
-        <v>198.925951911799</v>
+        <v>247.9195701018933</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>115.5057346222777</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>125.1634134907253</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512081</v>
+        <v>342.6792610512079</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113105</v>
+        <v>672.7677241113104</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322466</v>
+        <v>1030.453434322465</v>
       </c>
       <c r="N13" t="n">
         <v>1385.390475639937</v>
@@ -5221,28 +5221,28 @@
         <v>2035.523864981343</v>
       </c>
       <c r="R13" t="n">
-        <v>1959.496759041397</v>
+        <v>2035.523864981343</v>
       </c>
       <c r="S13" t="n">
-        <v>1944.961002030411</v>
+        <v>1857.641332110696</v>
       </c>
       <c r="T13" t="n">
-        <v>1736.997737902464</v>
+        <v>1649.678067982749</v>
       </c>
       <c r="U13" t="n">
-        <v>1461.698222330634</v>
+        <v>1374.378552410919</v>
       </c>
       <c r="V13" t="n">
-        <v>1220.817085427273</v>
+        <v>1133.497415507559</v>
       </c>
       <c r="W13" t="n">
-        <v>945.2032666928396</v>
+        <v>857.8835967731247</v>
       </c>
       <c r="X13" t="n">
-        <v>945.2032666928396</v>
+        <v>857.8835967731247</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.2032666928396</v>
+        <v>857.8835967731247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1936.570183009568</v>
+        <v>1128.684583470217</v>
       </c>
       <c r="C14" t="n">
-        <v>1581.411017371683</v>
+        <v>1128.684583470217</v>
       </c>
       <c r="D14" t="n">
-        <v>1236.948670067459</v>
+        <v>784.2222361659929</v>
       </c>
       <c r="E14" t="n">
-        <v>864.9637687717412</v>
+        <v>775.6684664659751</v>
       </c>
       <c r="F14" t="n">
-        <v>467.7812152846603</v>
+        <v>378.4859129788942</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>378.4859129788942</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>94.70566389018805</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438792</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3036.944108125541</v>
+        <v>3133.431425295918</v>
       </c>
       <c r="U14" t="n">
-        <v>2797.216982701904</v>
+        <v>2893.704299872282</v>
       </c>
       <c r="V14" t="n">
-        <v>2797.216982701904</v>
+        <v>2576.444763831238</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.702652444448</v>
+        <v>2237.47945986365</v>
       </c>
       <c r="X14" t="n">
-        <v>2685.702652444448</v>
+        <v>1877.817052905097</v>
       </c>
       <c r="Y14" t="n">
-        <v>2309.366671771163</v>
+        <v>1501.481072231812</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.6449480575637</v>
+        <v>593.1765015393125</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>438.0436699139324</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>438.0436699139324</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>303.9339276340659</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>303.9339276340659</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>150.0344423113114</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>150.0344423113114</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>125.1634134907253</v>
@@ -5458,28 +5458,28 @@
         <v>2035.523864981343</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041398</v>
+        <v>2035.523864981343</v>
       </c>
       <c r="S16" t="n">
-        <v>1781.614226170751</v>
+        <v>2035.523864981343</v>
       </c>
       <c r="T16" t="n">
-        <v>1573.650962042803</v>
+        <v>1827.560600853396</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.351446470974</v>
+        <v>1552.261085281566</v>
       </c>
       <c r="V16" t="n">
-        <v>1086.279307756205</v>
+        <v>1311.379948378206</v>
       </c>
       <c r="W16" t="n">
-        <v>810.665489021771</v>
+        <v>1035.766129643772</v>
       </c>
       <c r="X16" t="n">
-        <v>596.4792894262803</v>
+        <v>821.5799300482809</v>
       </c>
       <c r="Y16" t="n">
-        <v>389.4900615852767</v>
+        <v>761.0216150670257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1906.340210162619</v>
+        <v>1906.34021016262</v>
       </c>
       <c r="C17" t="n">
         <v>1598.630677472808</v>
       </c>
       <c r="D17" t="n">
-        <v>1301.617963116657</v>
+        <v>1301.617963116658</v>
       </c>
       <c r="E17" t="n">
-        <v>1016.286036621792</v>
+        <v>977.0826947690134</v>
       </c>
       <c r="F17" t="n">
-        <v>666.553116082784</v>
+        <v>666.5531160827845</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783802</v>
+        <v>312.7336501783801</v>
       </c>
       <c r="H17" t="n">
         <v>76.40303403774729</v>
@@ -5513,25 +5513,25 @@
         <v>76.40303403774729</v>
       </c>
       <c r="J17" t="n">
-        <v>432.6878140171257</v>
+        <v>265.2821649967727</v>
       </c>
       <c r="K17" t="n">
-        <v>766.507187706972</v>
+        <v>599.1015386866193</v>
       </c>
       <c r="L17" t="n">
-        <v>1217.541400955381</v>
+        <v>1463.620354339974</v>
       </c>
       <c r="M17" t="n">
-        <v>1751.073305627305</v>
+        <v>1997.152259011898</v>
       </c>
       <c r="N17" t="n">
-        <v>2297.852122686087</v>
+        <v>2543.931076070681</v>
       </c>
       <c r="O17" t="n">
-        <v>2800.824593565424</v>
+        <v>3046.903546950018</v>
       </c>
       <c r="P17" t="n">
-        <v>3237.597177147321</v>
+        <v>3447.789017900627</v>
       </c>
       <c r="Q17" t="n">
         <v>3696.075379656309</v>
@@ -5558,7 +5558,7 @@
         <v>2560.573413701353</v>
       </c>
       <c r="Y17" t="n">
-        <v>2231.687065976141</v>
+        <v>2231.687065976142</v>
       </c>
     </row>
     <row r="18">
@@ -5568,73 +5568,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4347720866715</v>
+        <v>951.4347720866722</v>
       </c>
       <c r="C18" t="n">
-        <v>776.9817428055445</v>
+        <v>776.9817428055452</v>
       </c>
       <c r="D18" t="n">
-        <v>628.0473331442932</v>
+        <v>628.047333144294</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8098781388377</v>
+        <v>468.8098781388385</v>
       </c>
       <c r="F18" t="n">
-        <v>322.2753201657227</v>
+        <v>322.2753201657235</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983408</v>
+        <v>185.912219998342</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620836</v>
+        <v>95.41032563620956</v>
       </c>
       <c r="I18" t="n">
         <v>76.40303403774729</v>
       </c>
       <c r="J18" t="n">
-        <v>170.0803035283646</v>
+        <v>170.080303528365</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3445025087117</v>
+        <v>408.3445025087121</v>
       </c>
       <c r="L18" t="n">
-        <v>775.042662821377</v>
+        <v>775.0426628213775</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.842031598147</v>
+        <v>1695.842031598148</v>
       </c>
       <c r="O18" t="n">
         <v>2106.803311016202</v>
       </c>
       <c r="P18" t="n">
-        <v>2417.302902492304</v>
+        <v>2417.302902492305</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.944460138904</v>
+        <v>2574.944460138905</v>
       </c>
       <c r="R18" t="n">
-        <v>2574.800106731419</v>
+        <v>2574.80010673142</v>
       </c>
       <c r="S18" t="n">
-        <v>2445.362220224899</v>
+        <v>2445.3622202249</v>
       </c>
       <c r="T18" t="n">
-        <v>2252.719219902755</v>
+        <v>2252.719219902756</v>
       </c>
       <c r="U18" t="n">
         <v>2024.651373037171</v>
       </c>
       <c r="V18" t="n">
-        <v>1789.499264805428</v>
+        <v>1789.499264805429</v>
       </c>
       <c r="W18" t="n">
-        <v>1535.261908077226</v>
+        <v>1535.261908077227</v>
       </c>
       <c r="X18" t="n">
-        <v>1327.410407871693</v>
+        <v>1327.410407871694</v>
       </c>
       <c r="Y18" t="n">
         <v>1119.65010910674</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.733708293172</v>
+        <v>672.7337082931717</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158649</v>
+        <v>565.0505096158647</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541291</v>
+        <v>476.1868544541289</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223359</v>
+        <v>389.5267451223357</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750254</v>
+        <v>303.8897818750253</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003443</v>
+        <v>197.4399295003442</v>
       </c>
       <c r="H19" t="n">
         <v>112.475726968802</v>
@@ -5671,25 +5671,25 @@
         <v>76.40303403774729</v>
       </c>
       <c r="J19" t="n">
-        <v>121.5256664846828</v>
+        <v>121.5256664846829</v>
       </c>
       <c r="K19" t="n">
-        <v>325.5128494335592</v>
+        <v>325.5128494335593</v>
       </c>
       <c r="L19" t="n">
-        <v>673.1940093328567</v>
+        <v>642.0726478820554</v>
       </c>
       <c r="M19" t="n">
-        <v>1077.385104796419</v>
+        <v>986.2296934816045</v>
       </c>
       <c r="N19" t="n">
-        <v>1418.793481502283</v>
+        <v>1327.638070187469</v>
       </c>
       <c r="O19" t="n">
-        <v>1718.123080422697</v>
+        <v>1687.001718971896</v>
       </c>
       <c r="P19" t="n">
-        <v>1950.730580856356</v>
+        <v>1979.643269269568</v>
       </c>
       <c r="Q19" t="n">
         <v>2088.374926872883</v>
@@ -5713,10 +5713,10 @@
         <v>1119.405350413159</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657419</v>
+        <v>952.6687837657416</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728117</v>
+        <v>793.1291888728115</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1945.543552015398</v>
+        <v>1906.340210162621</v>
       </c>
       <c r="C20" t="n">
-        <v>1637.834019325586</v>
+        <v>1598.630677472809</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.821304969435</v>
+        <v>1301.617963116658</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.286036621791</v>
+        <v>977.0826947690139</v>
       </c>
       <c r="F20" t="n">
         <v>666.5531160827836</v>
@@ -5750,28 +5750,28 @@
         <v>76.40303403774729</v>
       </c>
       <c r="J20" t="n">
-        <v>431.3564065796358</v>
+        <v>432.6878140171257</v>
       </c>
       <c r="K20" t="n">
-        <v>765.1757802694822</v>
+        <v>766.507187706972</v>
       </c>
       <c r="L20" t="n">
-        <v>1216.209993517891</v>
+        <v>1217.541400955381</v>
       </c>
       <c r="M20" t="n">
-        <v>1749.741898189815</v>
+        <v>1751.073305627305</v>
       </c>
       <c r="N20" t="n">
-        <v>2296.520715248597</v>
+        <v>2297.852122686087</v>
       </c>
       <c r="O20" t="n">
-        <v>2799.493186127934</v>
+        <v>2800.824593565424</v>
       </c>
       <c r="P20" t="n">
-        <v>3512.84827357488</v>
+        <v>3237.597177147321</v>
       </c>
       <c r="Q20" t="n">
-        <v>3761.134635330562</v>
+        <v>3696.075379656309</v>
       </c>
       <c r="R20" t="n">
         <v>3820.151701887365</v>
@@ -5783,19 +5783,19 @@
         <v>3626.389254299881</v>
       </c>
       <c r="U20" t="n">
-        <v>3434.111761824318</v>
+        <v>3434.111761824319</v>
       </c>
       <c r="V20" t="n">
-        <v>3164.301858731347</v>
+        <v>3164.301858731349</v>
       </c>
       <c r="W20" t="n">
-        <v>2872.786187711833</v>
+        <v>2872.786187711834</v>
       </c>
       <c r="X20" t="n">
-        <v>2560.573413701353</v>
+        <v>2560.573413701354</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.89040782892</v>
+        <v>2231.687065976143</v>
       </c>
     </row>
     <row r="21">
@@ -5908,22 +5908,22 @@
         <v>76.40303403774729</v>
       </c>
       <c r="J22" t="n">
-        <v>181.5597163486958</v>
+        <v>121.5256664846828</v>
       </c>
       <c r="K22" t="n">
-        <v>416.6682607483731</v>
+        <v>325.5128494335592</v>
       </c>
       <c r="L22" t="n">
-        <v>793.2621090608822</v>
+        <v>642.0726478820552</v>
       </c>
       <c r="M22" t="n">
-        <v>1137.419154660431</v>
+        <v>986.2296934816042</v>
       </c>
       <c r="N22" t="n">
-        <v>1478.827531366296</v>
+        <v>1387.672120051482</v>
       </c>
       <c r="O22" t="n">
-        <v>1778.157130286709</v>
+        <v>1718.123080422696</v>
       </c>
       <c r="P22" t="n">
         <v>2010.764630720368</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216477</v>
+        <v>1946.343620216475</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526665</v>
+        <v>1638.634087526664</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170514</v>
+        <v>1341.621373170513</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.08610482287</v>
+        <v>1017.086104822869</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838623</v>
+        <v>667.3531842838611</v>
       </c>
       <c r="G23" t="n">
         <v>313.5337183794572</v>
@@ -5987,28 +5987,28 @@
         <v>77.20310223882441</v>
       </c>
       <c r="J23" t="n">
-        <v>433.4878822182028</v>
+        <v>266.0822331978498</v>
       </c>
       <c r="K23" t="n">
-        <v>767.3072559080492</v>
+        <v>599.9016068876962</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.341469156458</v>
+        <v>1166.184551514845</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.873373828382</v>
+        <v>1699.716456186769</v>
       </c>
       <c r="N23" t="n">
-        <v>2298.652190887165</v>
+        <v>2655.104846392221</v>
       </c>
       <c r="O23" t="n">
-        <v>2801.624661766502</v>
+        <v>3158.077317271558</v>
       </c>
       <c r="P23" t="n">
-        <v>3514.979749213447</v>
+        <v>3552.851683628736</v>
       </c>
       <c r="Q23" t="n">
-        <v>3763.266110969129</v>
+        <v>3801.138045384418</v>
       </c>
       <c r="R23" t="n">
         <v>3860.155111941221</v>
@@ -6020,19 +6020,19 @@
         <v>3666.392664353737</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878175</v>
+        <v>3474.115171878174</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785204</v>
+        <v>3204.305268785203</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.78959776569</v>
+        <v>2912.789597765689</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.57682375521</v>
+        <v>2600.576823755209</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029999</v>
+        <v>2271.690476029997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,73 +6042,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877492</v>
+        <v>952.2348402877485</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066222</v>
+        <v>777.7818110066215</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453711</v>
+        <v>628.8474013453703</v>
       </c>
       <c r="E24" t="n">
-        <v>469.6099463399155</v>
+        <v>469.6099463399148</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668006</v>
+        <v>323.0753883667998</v>
       </c>
       <c r="G24" t="n">
-        <v>186.712288199419</v>
+        <v>186.7122881994179</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728647</v>
+        <v>96.21039383728537</v>
       </c>
       <c r="I24" t="n">
         <v>77.20310223882441</v>
       </c>
       <c r="J24" t="n">
-        <v>170.8803717294415</v>
+        <v>170.8803717294417</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1445707097886</v>
+        <v>409.1445707097888</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8427310224539</v>
+        <v>775.842731022454</v>
       </c>
       <c r="M24" t="n">
         <v>1223.11905624477</v>
       </c>
       <c r="N24" t="n">
-        <v>1696.642099799225</v>
+        <v>1696.642099799224</v>
       </c>
       <c r="O24" t="n">
-        <v>2107.60337921728</v>
+        <v>2107.603379217279</v>
       </c>
       <c r="P24" t="n">
-        <v>2418.102970693382</v>
+        <v>2418.102970693381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2575.744528339982</v>
+        <v>2575.744528339981</v>
       </c>
       <c r="R24" t="n">
-        <v>2575.600174932497</v>
+        <v>2575.600174932496</v>
       </c>
       <c r="S24" t="n">
-        <v>2446.162288425977</v>
+        <v>2446.162288425976</v>
       </c>
       <c r="T24" t="n">
-        <v>2253.519288103833</v>
+        <v>2253.519288103832</v>
       </c>
       <c r="U24" t="n">
         <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
-        <v>1790.299333006506</v>
+        <v>1790.299333006505</v>
       </c>
       <c r="W24" t="n">
-        <v>1536.061976278304</v>
+        <v>1536.061976278303</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072771</v>
+        <v>1328.21047607277</v>
       </c>
       <c r="Y24" t="n">
         <v>1120.450177307817</v>
@@ -6145,13 +6145,13 @@
         <v>77.20310223882441</v>
       </c>
       <c r="J25" t="n">
-        <v>182.3597845497729</v>
+        <v>122.32573468576</v>
       </c>
       <c r="K25" t="n">
-        <v>417.4683289494501</v>
+        <v>386.3469674986493</v>
       </c>
       <c r="L25" t="n">
-        <v>794.0621772619592</v>
+        <v>762.9408158111584</v>
       </c>
       <c r="M25" t="n">
         <v>1138.219222861508</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467775</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>437.4316968760676</v>
@@ -6233,43 +6233,43 @@
         <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2200.835586644151</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2747.614403702933</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3250.58687458227</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3645.361240939448</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6379,16 +6379,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6449,16 +6449,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467785</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
@@ -6479,19 +6479,19 @@
         <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>810.8729904741861</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1261.907203722595</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2240.457506552423</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6795,31 +6795,31 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913847</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415477</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.79051496434</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302711</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6862,10 +6862,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,34 +6874,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467775</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>1092.155029011367</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
-        <v>1543.189242259775</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2076.7211469317</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2623.499963990482</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>3126.472434869819</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7032,31 +7032,31 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R36" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S36" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T36" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U36" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V36" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W36" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X36" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
         <v>1124.393991965682</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
-        <v>393.2994530991704</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>727.1188267890168</v>
+        <v>842.4067862271454</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037425</v>
+        <v>1706.9256018805</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.68494470935</v>
+        <v>2240.457506552424</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768132</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647469</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7227,73 +7227,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T39" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U39" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,10 +7397,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7427,13 +7427,13 @@
         <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7464,73 +7464,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U42" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y42" t="n">
         <v>1124.393991965682</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,7 +7567,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973143</v>
@@ -7576,7 +7576,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521972</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
@@ -7746,28 +7746,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U45" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
         <v>1124.393991965682</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F46" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.42244164113123</v>
+        <v>6.172832922657904</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.912071163853398e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7517591746092</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>42.42244164113123</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>116.4128599785252</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>412.7369425723939</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>38.25447920736241</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544146</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>105.7385611944699</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544146</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>167.7369666428383</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>40.02214132148697</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.2206841544165</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>231.1066821161376</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.13839585591604</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5185911550059</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>71.87446026387016</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544146</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591512</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>274.8351763665432</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>21.13839585591604</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815062</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342462</v>
+        <v>27.91161198342461</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>95.52244399867449</v>
       </c>
       <c r="T11" t="n">
-        <v>154.511336589343</v>
+        <v>190.2526523501188</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889676</v>
+        <v>203.836976244472</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>372.5726208665522</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.950155228711</v>
       </c>
       <c r="E13" t="n">
         <v>132.7686448570678</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033676</v>
+        <v>34.18342061214352</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>75.26683488054599</v>
       </c>
       <c r="S13" t="n">
-        <v>161.7133081010638</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>351.6075739815062</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>359.7968202797429</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.2564078639521</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978191</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342462</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.52244399867449</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806335</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>225.17646397303</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889676</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>134.950155228711</v>
       </c>
       <c r="E16" t="n">
-        <v>132.7686448570678</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>131.7557302334299</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3604904695269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0896971248194</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033674</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>75.26683488054599</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>176.1037075419405</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>28.52090820670564</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>144.9666037311508</v>
       </c>
     </row>
     <row r="17">
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>38.81130843425154</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>38.81130843425096</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>38.81130843424955</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.81130843425096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1269555.485842634</v>
+        <v>1269555.485842633</v>
       </c>
     </row>
     <row r="8">
@@ -26314,19 +26314,19 @@
         <v>184337.1762113336</v>
       </c>
       <c r="C2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="D2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="E2" t="n">
-        <v>158879.1595461859</v>
+        <v>158879.159546186</v>
       </c>
       <c r="F2" t="n">
         <v>158879.159546186</v>
       </c>
       <c r="G2" t="n">
-        <v>184039.2876854062</v>
+        <v>184039.2876854064</v>
       </c>
       <c r="H2" t="n">
         <v>184039.2876854062</v>
@@ -26338,22 +26338,22 @@
         <v>184734.3982194638</v>
       </c>
       <c r="K2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="L2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="M2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="N2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="O2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="P2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="L2" t="n">
-        <v>184734.3982194637</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194639</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194637</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194638</v>
-      </c>
-      <c r="P2" t="n">
-        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388625</v>
+        <v>71467.01119388633</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>2659.436701232859</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.4430292795</v>
+        <v>12898.44302927956</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.2401587069</v>
+        <v>29753.24015870698</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26430,34 @@
         <v>22969.88759302224</v>
       </c>
       <c r="G4" t="n">
-        <v>78706.21105803634</v>
+        <v>78706.21105803631</v>
       </c>
       <c r="H4" t="n">
-        <v>78706.21105803637</v>
+        <v>78706.21105803638</v>
       </c>
       <c r="I4" t="n">
-        <v>79814.17669746629</v>
+        <v>79814.1766974663</v>
       </c>
       <c r="J4" t="n">
+        <v>76652.56781120108</v>
+      </c>
+      <c r="K4" t="n">
+        <v>76652.56781120109</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76652.56781120112</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76652.56781120111</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76652.56781120109</v>
+      </c>
+      <c r="O4" t="n">
+        <v>76652.56781120105</v>
+      </c>
+      <c r="P4" t="n">
         <v>76652.56781120106</v>
-      </c>
-      <c r="K4" t="n">
-        <v>76652.56781120105</v>
-      </c>
-      <c r="L4" t="n">
-        <v>76652.56781120108</v>
-      </c>
-      <c r="M4" t="n">
-        <v>76652.56781120106</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76652.56781120104</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76652.56781120106</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76652.56781120109</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.17016263888</v>
+        <v>75455.17016263887</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263888</v>
+        <v>75455.17016263887</v>
       </c>
       <c r="G5" t="n">
         <v>86921.42030325589</v>
@@ -26491,25 +26491,25 @@
         <v>87529.4721360745</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269438.1926781976</v>
+        <v>-269442.6062560658</v>
       </c>
       <c r="C6" t="n">
-        <v>-269438.1926781977</v>
+        <v>-269442.6062560657</v>
       </c>
       <c r="D6" t="n">
-        <v>-269438.1926781977</v>
+        <v>-269442.6062560657</v>
       </c>
       <c r="E6" t="n">
-        <v>-1074246.20677894</v>
+        <v>-1074533.487208643</v>
       </c>
       <c r="F6" t="n">
-        <v>60454.1017905249</v>
+        <v>60166.82136082177</v>
       </c>
       <c r="G6" t="n">
-        <v>-53055.35486977229</v>
+        <v>-53063.07832015057</v>
       </c>
       <c r="H6" t="n">
-        <v>18411.65632411397</v>
+        <v>18403.93287373556</v>
       </c>
       <c r="I6" t="n">
-        <v>14731.31268469</v>
+        <v>14731.31268468995</v>
       </c>
       <c r="J6" t="n">
-        <v>5805.445704177153</v>
+        <v>5805.445704177037</v>
       </c>
       <c r="K6" t="n">
-        <v>18703.8887334567</v>
+        <v>18703.88873345661</v>
       </c>
       <c r="L6" t="n">
-        <v>-18876.22056141749</v>
+        <v>-18876.2205614175</v>
       </c>
       <c r="M6" t="n">
-        <v>-188484.6795586162</v>
+        <v>-188484.6795586164</v>
       </c>
       <c r="N6" t="n">
-        <v>18703.8887334566</v>
+        <v>18703.88873345655</v>
       </c>
       <c r="O6" t="n">
-        <v>-11049.35142525028</v>
+        <v>-11049.35142525041</v>
       </c>
       <c r="P6" t="n">
-        <v>18703.88873345654</v>
+        <v>18703.88873345667</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>13.66531778950137</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="H2" t="n">
         <v>60.64045440809394</v>
@@ -26707,25 +26707,25 @@
         <v>60.64045440809394</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859259</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>955.0379254718412</v>
@@ -26811,25 +26811,25 @@
         <v>965.0387779853052</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695485</v>
+        <v>123.6364700695487</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>10.000852513464</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330915</v>
+        <v>49.29768322330938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695484</v>
+        <v>123.6364700695487</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695485</v>
+        <v>123.6364700695487</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,46 +28749,46 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.43571863717318</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>60.64045440809392</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="Q19" t="n">
-        <v>60.64045440809392</v>
+        <v>31.43571863717195</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809392</v>
+        <v>60.64045440809394</v>
       </c>
     </row>
     <row r="20">
@@ -28980,25 +28980,25 @@
         <v>60.64045440809394</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>60.64045440809394</v>
       </c>
-      <c r="K22" t="n">
-        <v>31.43571863717267</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="O22" t="n">
+        <v>31.4357186371729</v>
+      </c>
+      <c r="P22" t="n">
         <v>60.64045440809394</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29217,16 +29217,16 @@
         <v>60.64045440809394</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>60.64045440809394</v>
-      </c>
-      <c r="K25" t="n">
-        <v>31.43571863717256</v>
       </c>
       <c r="L25" t="n">
         <v>60.64045440809394</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>31.43571863717256</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33275,10 +33275,10 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33515,7 +33515,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987486</v>
@@ -33752,7 +33752,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35571,7 +35571,7 @@
         <v>219.7129773338209</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596994</v>
+        <v>333.4226899596995</v>
       </c>
       <c r="M13" t="n">
         <v>361.2986971829852</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>441.1844278605029</v>
+        <v>404.9348191420298</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>351.1930908073713</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>408.2738338015777</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>362.9935846307337</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5975255532044</v>
       </c>
       <c r="Q19" t="n">
-        <v>139.0346929459876</v>
+        <v>109.8299571750656</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>358.5387601433217</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36136,13 +36136,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>441.1844278605029</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.2188710211601</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>237.4833781814922</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>380.397826578292</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>405.4974005756339</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>333.7888488598126</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5975255532043</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>572.0029743708571</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>965.0387779853052</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>97.86767774958713</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.2188710211601</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>237.4833781814921</v>
+        <v>266.6881139524135</v>
       </c>
       <c r="L25" t="n">
         <v>380.397826578292</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>379.0690980306563</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
@@ -36610,13 +36610,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>356.5328659981893</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36847,10 +36847,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>418.5312714465578</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36923,10 +36923,10 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37069,13 +37069,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2134278768874</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
@@ -37084,10 +37084,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737881</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127271</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37306,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
@@ -37321,13 +37321,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>629.8686683355093</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>80.75159439814077</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>315.3055921237184</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>409.0657468192705</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37558,10 +37558,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37795,13 +37795,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439813984</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38023,22 +38023,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>80.75159439814077</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
